--- a/owasp_asvs_checklist.xlsx
+++ b/owasp_asvs_checklist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr updateLinks="always"/>
-  <xr:revisionPtr revIDLastSave="748" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59B08404-2CE6-4C97-ADC7-556FD104995B}"/>
+  <xr:revisionPtr revIDLastSave="826" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB2FD7A9-1BBB-47AA-AA8B-1B29E05ADFA8}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4384,7 +4384,7 @@
   <dimension ref="B1:K124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4896,9 +4896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3A0A95-D0BF-4382-BE6E-AEAF5C3C3215}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="B2:E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5312,9 +5310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2A9E87-8922-4C34-8E77-BDB2C16D712A}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E6" activeCellId="2" sqref="B23:E27 B11:E11 B6:E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5989,9 +5985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB44D481-0AA2-467F-A0DD-2D4EBE163BF5}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6598,9 +6592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C327893-3B17-4233-8E39-F638B40F0972}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7091,9 +7083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71EF336-E38E-45F2-B6B2-C4E5C563BFB7}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7211,7 +7201,7 @@
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" ht="29.25" customHeight="1">
+    <row r="8" spans="1:6" s="6" customFormat="1" ht="43.5">
       <c r="A8" s="34"/>
       <c r="B8" s="30" t="s">
         <v>643</v>
@@ -7688,9 +7678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685D8C2E-13BD-42E7-885A-80DB5B96F96F}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="B8:E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8202,9 +8190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C591100-1C4A-41CB-91B1-C77F9F01BE04}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8802,9 +8788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3EB843-E99F-4830-9709-222D3BEC76C3}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="B18:E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8922,7 +8906,7 @@
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" ht="29.25" customHeight="1">
+    <row r="8" spans="1:6" s="6" customFormat="1" ht="43.5">
       <c r="A8" s="34" t="s">
         <v>764</v>
       </c>
@@ -9366,9 +9350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71C3596-F421-4CB5-8D1E-643525CD2411}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9863,9 +9845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727A0E66-AB75-4173-BB34-1F12A6F91FB9}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10334,7 +10314,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{5FBF0008-E8D9-47C4-8956-92A4750CEB7E}">
+          <x14:cfRule type="expression" priority="6" id="{FB4A3F17-A900-482F-AE00-023F0E2E0EB8}">
+            <xm:f>IF(STATISTICS!$J$4=FALSE, TRUE, FALSE)</xm:f>
+            <x14:dxf>
+              <font>
+                <strike/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B16:E24 B26:E28 B30:E30 B9:E12 B2:E3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="11" id="{5FBF0008-E8D9-47C4-8956-92A4750CEB7E}">
             <xm:f>IF(STATISTICS!$K$4=FALSE, TRUE, FALSE)</xm:f>
             <x14:dxf>
               <font>
@@ -10345,18 +10336,7 @@
           <xm:sqref>B13:E13 B25:E25 B31:E31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{FB4A3F17-A900-482F-AE00-023F0E2E0EB8}">
-            <xm:f>IF(STATISTICS!$J$4=FALSE, TRUE, FALSE)</xm:f>
-            <x14:dxf>
-              <font>
-                <strike/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B16:E24 B26:E28 B2:D3 B30:E30 B9:E12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="10" id="{5FBF0008-E8D9-47C4-8956-92A4750CEB7E}">
+          <x14:cfRule type="expression" priority="1" id="{4E177E48-4CD3-4A9C-9FE3-FA395FBA7233}">
             <xm:f>IF(STATISTICS!$I$4=FALSE, TRUE, FALSE)</xm:f>
             <x14:dxf>
               <font>
@@ -10364,7 +10344,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B5:E8 B14:E15 B29:E29 B4:D4 E2:E4</xm:sqref>
+          <xm:sqref>B4:E8 B14:E15 B29:E29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10376,9 +10356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21845B5-CC43-49E6-8910-6CBF7363E922}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E12" sqref="B12:E12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10749,9 +10727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A787DBDD-4905-4F8D-A00E-0309A111752C}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E32" activeCellId="6" sqref="B10:E10 B17:E17 B5:E5 B2:E2 B18:E18 B24:E27 B30:E32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11278,9 +11254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BBF719-3690-46B0-B952-1B174412744E}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11714,9 +11688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6182094B-0E1E-41F6-BA5F-F29D29ED06E9}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12131,9 +12103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E86C29A-B363-47C6-8580-544B4C38EB0E}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12868,9 +12838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3BD3E5-8CA8-4A87-9FDF-4CEFAEE3FEA7}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:E18"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13411,9 +13379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D326FB4-D195-450A-A191-6F8446C76E20}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E5" activeCellId="3" sqref="B14:E14 B11:E12 B9:E9 B4:E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
